--- a/IEDC_LookupTable_fill/source_type_data.xlsx
+++ b/IEDC_LookupTable_fill/source_type_data.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -28,22 +28,25 @@
     <t>reserve2</t>
   </si>
   <si>
-    <t>Publicly available dataset</t>
-  </si>
-  <si>
-    <t>Proprietary dataset</t>
-  </si>
-  <si>
     <t>Publicly available report or research article</t>
   </si>
   <si>
     <t>Proprietary report or research article</t>
   </si>
   <si>
-    <t>Dynamic web page</t>
-  </si>
-  <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>Publicly available dataset, static web page</t>
+  </si>
+  <si>
+    <t>Publicly available dataset, dynamic web page</t>
+  </si>
+  <si>
+    <t>Proprietary dataset, static web page</t>
+  </si>
+  <si>
+    <t>Proprietary dataset, dynamic web page</t>
   </si>
 </sst>
 </file>
@@ -92,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -103,9 +106,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -410,12 +414,12 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +427,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -432,64 +436,68 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="6"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="4"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
